--- a/time recording/Steven Wang_Attendance Records List_2018-11.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,6 +92,26 @@
   </si>
   <si>
     <t>total:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00
+18:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare the proposal for integration between Omnex products and SAP ERP
+SAP documentation collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare the proposal for integration between Omnex products and SAP ERP
+Integration technical solution discussion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -283,6 +303,43 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,43 +367,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,34 +689,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
@@ -816,110 +836,134 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="9">
+        <v>43417</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="9">
+        <v>43419</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
@@ -961,24 +1005,24 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="19">
         <f>SUM(E3:E27)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-11.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,6 +112,20 @@
   <si>
     <t>Prepare the proposal for integration between Omnex products and SAP ERP
 Integration technical solution discussion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Sabu to go through the integration solution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -328,6 +342,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,33 +379,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,37 +703,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
@@ -730,7 +744,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -739,7 +753,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -748,7 +762,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -757,7 +771,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -766,7 +780,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="8"/>
@@ -777,7 +791,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -786,7 +800,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="9">
         <v>43411</v>
       </c>
@@ -807,7 +821,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="9">
         <v>43411</v>
       </c>
@@ -828,7 +842,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -837,7 +851,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9">
@@ -860,7 +874,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -869,7 +883,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="9">
         <v>43419</v>
       </c>
@@ -890,7 +904,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -899,7 +913,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -908,7 +922,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11"/>
@@ -918,17 +932,29 @@
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="9">
+        <v>43424</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -937,7 +963,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -946,7 +972,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -955,7 +981,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="11"/>
@@ -966,7 +992,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -975,7 +1001,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -984,7 +1010,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -993,7 +1019,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1007,22 +1033,22 @@
       </c>
       <c r="E28" s="19">
         <f>SUM(E3:E27)</f>
-        <v>22</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
